--- a/BalanceSheet/XLNX_bal.xlsx
+++ b/BalanceSheet/XLNX_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-18060000.0</v>
+        <v>300000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>10165000.0</v>
+        <v>282000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>12127000.0</v>
+        <v>292000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>24792000.0</v>
+        <v>304000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>7830000.0</v>
+        <v>328000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>335258000.0</v>
@@ -1688,19 +1688,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>9416000.0</v>
+        <v>110000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-4368000.0</v>
+        <v>106000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1333000.0</v>
+        <v>103000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>15829000.0</v>
+        <v>102000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-6680000.0</v>
+        <v>103000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>107105000.0</v>
@@ -3025,7 +3025,7 @@
         <v>-8979000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>10545000.0</v>
+        <v>-149000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>-9925000.0</v>
